--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col18a1</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col18a1</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H2">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I2">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J2">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>703.0834152379107</v>
+        <v>937.8451319948954</v>
       </c>
       <c r="R2">
-        <v>6327.750737141197</v>
+        <v>8440.606187954058</v>
       </c>
       <c r="S2">
-        <v>0.06511804734160852</v>
+        <v>0.09376410919097586</v>
       </c>
       <c r="T2">
-        <v>0.08042037887584161</v>
+        <v>0.1082386582771767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H3">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I3">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J3">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>1083.354525633557</v>
+        <v>1663.254688181557</v>
       </c>
       <c r="R3">
-        <v>9750.190730702012</v>
+        <v>14969.29219363401</v>
       </c>
       <c r="S3">
-        <v>0.1003379254282087</v>
+        <v>0.166289282606104</v>
       </c>
       <c r="T3">
-        <v>0.1239167067805563</v>
+        <v>0.1919596846859526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H4">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I4">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J4">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>469.8557634886895</v>
+        <v>955.3406720295836</v>
       </c>
       <c r="R4">
-        <v>4228.701871398206</v>
+        <v>8598.066048266253</v>
       </c>
       <c r="S4">
-        <v>0.04351701261539632</v>
+        <v>0.09551328255681527</v>
       </c>
       <c r="T4">
-        <v>0.0537432368589894</v>
+        <v>0.1102578549596409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H5">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I5">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J5">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>272.5886248178231</v>
+        <v>308.7366614126796</v>
       </c>
       <c r="R5">
-        <v>1635.531748906938</v>
+        <v>1852.419968476077</v>
       </c>
       <c r="S5">
-        <v>0.02524656191707286</v>
+        <v>0.03086694918422138</v>
       </c>
       <c r="T5">
-        <v>0.02078623011152104</v>
+        <v>0.02375462703613012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H6">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I6">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J6">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>794.1292793970072</v>
+        <v>824.8664843132667</v>
       </c>
       <c r="R6">
-        <v>7147.163514573065</v>
+        <v>7423.7983588194</v>
       </c>
       <c r="S6">
-        <v>0.07355051604173213</v>
+        <v>0.08246870241636708</v>
       </c>
       <c r="T6">
-        <v>0.09083442468045688</v>
+        <v>0.09519955744715194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J7">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>430.5427499771346</v>
+        <v>374.0695876430318</v>
       </c>
       <c r="R7">
-        <v>3874.884749794212</v>
+        <v>3366.626288787286</v>
       </c>
       <c r="S7">
-        <v>0.03987592733375805</v>
+        <v>0.03739882040671023</v>
       </c>
       <c r="T7">
-        <v>0.0492465194385102</v>
+        <v>0.04317214952393537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J8">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>663.4069678753752</v>
+        <v>663.4069678753751</v>
       </c>
       <c r="R8">
-        <v>5970.662710878377</v>
+        <v>5970.662710878376</v>
       </c>
       <c r="S8">
-        <v>0.0614433016120052</v>
+        <v>0.06632626352882691</v>
       </c>
       <c r="T8">
-        <v>0.07588209101384903</v>
+        <v>0.0765651786684878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J9">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>287.7226060531868</v>
+        <v>381.0478713948993</v>
       </c>
       <c r="R9">
-        <v>2589.503454478681</v>
+        <v>3429.430842554094</v>
       </c>
       <c r="S9">
-        <v>0.02664823814096439</v>
+        <v>0.03809649696049681</v>
       </c>
       <c r="T9">
-        <v>0.03291040648727585</v>
+        <v>0.04397752777308502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.891062</v>
       </c>
       <c r="I10">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J10">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>166.923374379181</v>
+        <v>123.142928064541</v>
       </c>
       <c r="R10">
-        <v>1001.540246275086</v>
+        <v>738.857568387246</v>
       </c>
       <c r="S10">
-        <v>0.0154600776517626</v>
+        <v>0.01231161367610847</v>
       </c>
       <c r="T10">
-        <v>0.01272873243759205</v>
+        <v>0.009474787720140954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>38.891062</v>
       </c>
       <c r="I11">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J11">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>486.2959307228898</v>
+        <v>329.0068425170442</v>
       </c>
       <c r="R11">
-        <v>4376.663376506008</v>
+        <v>2961.061582653398</v>
       </c>
       <c r="S11">
-        <v>0.04503966492813558</v>
+        <v>0.03289352629119819</v>
       </c>
       <c r="T11">
-        <v>0.05562370288777376</v>
+        <v>0.03797136433635514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H12">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I12">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J12">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>1.84223868774</v>
+        <v>685.7893642799411</v>
       </c>
       <c r="R12">
-        <v>16.58014818966</v>
+        <v>4114.736185679646</v>
       </c>
       <c r="S12">
-        <v>0.000170624115834396</v>
+        <v>0.06856401621190512</v>
       </c>
       <c r="T12">
-        <v>0.0002107197098336498</v>
+        <v>0.05276558507588281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H13">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I13">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J13">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>2.83863561052</v>
+        <v>1216.237453637356</v>
       </c>
       <c r="R13">
-        <v>25.54772049468001</v>
+        <v>7297.424721824136</v>
       </c>
       <c r="S13">
-        <v>0.0002629082183781401</v>
+        <v>0.1215972845777145</v>
       </c>
       <c r="T13">
-        <v>0.000324689996010256</v>
+        <v>0.09357899695595219</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H14">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I14">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J14">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>1.23112911839</v>
+        <v>698.582793460089</v>
       </c>
       <c r="R14">
-        <v>11.08016206551</v>
+        <v>4191.496760760534</v>
       </c>
       <c r="S14">
-        <v>0.0001140244848299047</v>
+        <v>0.06984308079266678</v>
       </c>
       <c r="T14">
-        <v>0.0001408195215535018</v>
+        <v>0.05374992926518963</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H15">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I15">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J15">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>0.7142442839550001</v>
+        <v>225.7604283873015</v>
       </c>
       <c r="R15">
-        <v>4.285465703730001</v>
+        <v>903.0417135492061</v>
       </c>
       <c r="S15">
-        <v>6.615174257853424E-05</v>
+        <v>0.02257113113471238</v>
       </c>
       <c r="T15">
-        <v>5.446465732768347E-05</v>
+        <v>0.01158021370341661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H16">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I16">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J16">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>2.08079958916</v>
+        <v>603.1749193918129</v>
       </c>
       <c r="R16">
-        <v>18.72719630244</v>
+        <v>3619.049516350878</v>
       </c>
       <c r="S16">
-        <v>0.0001927191044742116</v>
+        <v>0.06030436910496204</v>
       </c>
       <c r="T16">
-        <v>0.0002380068818268432</v>
+        <v>0.0464091150760624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H17">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I17">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J17">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>1148.044242995265</v>
+        <v>2.382245544980889</v>
       </c>
       <c r="R17">
-        <v>6888.26545797159</v>
+        <v>21.440209904828</v>
       </c>
       <c r="S17">
-        <v>0.1063293454878748</v>
+        <v>0.0002381727257294328</v>
       </c>
       <c r="T17">
-        <v>0.08754404857889821</v>
+        <v>0.0002749399156415481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H18">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I18">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J18">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>1768.97776184297</v>
+        <v>4.224877792627556</v>
       </c>
       <c r="R18">
-        <v>10613.86657105782</v>
+        <v>38.02390013364801</v>
       </c>
       <c r="S18">
-        <v>0.1638388491968114</v>
+        <v>0.0004223958616960816</v>
       </c>
       <c r="T18">
-        <v>0.134893298810271</v>
+        <v>0.0004876019377381976</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H19">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I19">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J19">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>767.2136657196023</v>
+        <v>2.426686434934667</v>
       </c>
       <c r="R19">
-        <v>4603.281994317614</v>
+        <v>21.840177914412</v>
       </c>
       <c r="S19">
-        <v>0.07105765080314502</v>
+        <v>0.0002426158478569706</v>
       </c>
       <c r="T19">
-        <v>0.05850383452724518</v>
+        <v>0.0002800689312296641</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H20">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I20">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J20">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>445.1019532614113</v>
+        <v>0.7842302648180002</v>
       </c>
       <c r="R20">
-        <v>1780.407813045645</v>
+        <v>4.705381588908001</v>
       </c>
       <c r="S20">
-        <v>0.04122436888162307</v>
+        <v>7.840596455925638E-05</v>
       </c>
       <c r="T20">
-        <v>0.02262748278598074</v>
+        <v>6.033976452928005E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H21">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I21">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J21">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>1296.71035846751</v>
+        <v>2.095265455267111</v>
       </c>
       <c r="R21">
-        <v>7780.26215080506</v>
+        <v>18.857389097404</v>
       </c>
       <c r="S21">
-        <v>0.1200984757725635</v>
+        <v>0.0002094809603733322</v>
       </c>
       <c r="T21">
-        <v>0.09888057477494654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J22">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>33.211442</v>
-      </c>
-      <c r="N22">
-        <v>99.634326</v>
-      </c>
-      <c r="O22">
-        <v>0.211580186305583</v>
-      </c>
-      <c r="P22">
-        <v>0.2175281749633597</v>
-      </c>
-      <c r="Q22">
-        <v>0.9311602698346666</v>
-      </c>
-      <c r="R22">
-        <v>8.380442428512001</v>
-      </c>
-      <c r="S22">
-        <v>8.624202650719742E-05</v>
-      </c>
-      <c r="T22">
-        <v>0.0001065083602759927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J23">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>51.17424933333334</v>
-      </c>
-      <c r="N23">
-        <v>153.522748</v>
-      </c>
-      <c r="O23">
-        <v>0.326015871517865</v>
-      </c>
-      <c r="P23">
-        <v>0.3351809012869699</v>
-      </c>
-      <c r="Q23">
-        <v>1.434789486641778</v>
-      </c>
-      <c r="R23">
-        <v>12.913105379776</v>
-      </c>
-      <c r="S23">
-        <v>0.0001328870624615235</v>
-      </c>
-      <c r="T23">
-        <v>0.0001641146862833643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J24">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>22.19450366666666</v>
-      </c>
-      <c r="N24">
-        <v>66.58351099999999</v>
-      </c>
-      <c r="O24">
-        <v>0.1413945597650736</v>
-      </c>
-      <c r="P24">
-        <v>0.1453694746776606</v>
-      </c>
-      <c r="Q24">
-        <v>0.6222746974702221</v>
-      </c>
-      <c r="R24">
-        <v>5.600472277231999</v>
-      </c>
-      <c r="S24">
-        <v>5.763372073801422E-05</v>
-      </c>
-      <c r="T24">
-        <v>7.117728259664772E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J25">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.8762265</v>
-      </c>
-      <c r="N25">
-        <v>25.752453</v>
-      </c>
-      <c r="O25">
-        <v>0.08203059661736112</v>
-      </c>
-      <c r="P25">
-        <v>0.05622443917490541</v>
-      </c>
-      <c r="Q25">
-        <v>0.3610150544560001</v>
-      </c>
-      <c r="R25">
-        <v>2.166090326736001</v>
-      </c>
-      <c r="S25">
-        <v>3.343642432405308E-05</v>
-      </c>
-      <c r="T25">
-        <v>2.752918248390189E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J26">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>37.51216133333333</v>
-      </c>
-      <c r="N26">
-        <v>112.536484</v>
-      </c>
-      <c r="O26">
-        <v>0.2389787857941174</v>
-      </c>
-      <c r="P26">
-        <v>0.2456970098971044</v>
-      </c>
-      <c r="Q26">
-        <v>1.051740971356445</v>
-      </c>
-      <c r="R26">
-        <v>9.465668742208001</v>
-      </c>
-      <c r="S26">
-        <v>9.740994721191568E-05</v>
-      </c>
-      <c r="T26">
-        <v>0.0001203006721003512</v>
+        <v>0.0002418189463011089</v>
       </c>
     </row>
   </sheetData>
